--- a/Docs/REPORTES.xlsx
+++ b/Docs/REPORTES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\PERSONAL\ANDROID\AppIcobandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\PERSONAL\ANDROID\AppIcobandas\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -201,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,20 +224,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -245,14 +276,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,8 +573,8 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,16 +586,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -571,157 +605,157 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6" t="s">
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
